--- a/output/default.xlsx
+++ b/output/default.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="186">
   <si>
     <t>category_id</t>
   </si>
@@ -31,442 +31,547 @@
     <t>price</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>內睡衣</t>
-  </si>
-  <si>
-    <t>曼黛瑪璉 Mode Marie</t>
-  </si>
-  <si>
-    <t>黛安芬 Triumph</t>
-  </si>
-  <si>
-    <t>華歌爾 Wacoal</t>
-  </si>
-  <si>
-    <t>奧黛莉 EASY SHOP</t>
-  </si>
-  <si>
-    <t>蕾黛絲 Ladies</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 Modern Girl</t>
-  </si>
-  <si>
-    <t>思薇爾 Swear</t>
-  </si>
-  <si>
-    <t>羅絲美 / La Felino</t>
-  </si>
-  <si>
-    <t>aimerfeel</t>
-  </si>
-  <si>
-    <t>LADY</t>
-  </si>
-  <si>
-    <t>男性內著</t>
-  </si>
-  <si>
-    <t>女性內衣</t>
-  </si>
-  <si>
-    <t>運動內衣</t>
-  </si>
-  <si>
-    <t>調整型 / 塑身衣</t>
-  </si>
-  <si>
-    <t>睡衣</t>
-  </si>
-  <si>
-    <t>襪子</t>
-  </si>
-  <si>
-    <t>【曼黛瑪璉】美感調度衣 高領衛生衣(黑)</t>
-  </si>
-  <si>
-    <t>【曼黛瑪璉】I10002衛生衣(華麗紫)</t>
-  </si>
-  <si>
-    <t>【曼黛瑪璉】魔幻美型  重機能俏臀褲(黑)</t>
-  </si>
-  <si>
-    <t>【曼黛瑪璉】美感調度衣 高領衛生衣(深遂灰)</t>
-  </si>
-  <si>
-    <t>曼黛瑪璉-2015SS-IceBar涼感內衣  B-E罩杯(薰草紫)</t>
-  </si>
-  <si>
-    <t>曼黛瑪璉 經典B-D罩杯內衣 (黑)</t>
-  </si>
-  <si>
-    <t>【曼黛瑪璉】魔幻美型  重機能俏臀褲(魔幻紫)</t>
-  </si>
-  <si>
-    <t>【曼黛瑪璉】輕機能暖塑褲I40008(靚茶粉)</t>
-  </si>
-  <si>
-    <t>【曼黛瑪璉】輕身活─透澈款 C-F罩杯內衣(櫻桃紅)</t>
-  </si>
-  <si>
-    <t>曼黛瑪璉 包覆提托經典內衣 B-E罩杯(黑)</t>
-  </si>
-  <si>
-    <t>黛安芬-蝴蝶逆齡bra系列低腰內褲M-EL(英國藍)</t>
-  </si>
-  <si>
-    <t>黛安芬-Premium Collection華麗美型 B-E罩杯內衣(和風紫)</t>
-  </si>
-  <si>
-    <t>黛安芬-eco chic海藻棉低腰內褲M-EL(海洋藍)</t>
-  </si>
-  <si>
-    <t>黛安芬-超值美選Bra M-EL高腰內褲(棕櫚藍綠)</t>
-  </si>
-  <si>
-    <t>黛安芬-eco chic海藻棉低腰內褲M-EL(罌粟粉)</t>
-  </si>
-  <si>
-    <t>黛安芬-逆齡Bra-顯瘦款- B-E罩杯內衣(胭脂紅)</t>
-  </si>
-  <si>
-    <t>黛安芬-透氧魔術3/4魔術版內衣B-C罩杯(羅曼蒂紫)</t>
-  </si>
-  <si>
-    <t>黛安芬- STRETTY小褲 柔棉高腰內褲 M-EQ(粉)</t>
-  </si>
-  <si>
-    <t>BeeDees蜜笛詩-夢遊仙境-低腰內褲M-EL(青檸綠)</t>
-  </si>
-  <si>
-    <t>黛安芬-無鋼圈魔術呼吸版 M-EL平口內褲(薰衣紫)</t>
-  </si>
-  <si>
-    <t>華歌爾-恆溫M-LL 圓領長袖保暖衣(棗紅)修飾腰身款</t>
-  </si>
-  <si>
-    <t>華歌爾-極衣恆溫M-LL 厚刷立領保暖衣(楓葉黃)保暖柔暖-吸水速乾</t>
-  </si>
-  <si>
-    <t>華歌爾-日本進口無鋼圈Wire Free Bra減壓B-D罩杯內衣(時尚黑)</t>
-  </si>
-  <si>
-    <t>莎薇 好動Bra 系列 B-E罩杯內衣(絲絨藍)</t>
-  </si>
-  <si>
-    <t>摩奇X-挺魔力系列B-E罩杯內衣(棕)</t>
-  </si>
-  <si>
-    <t>華歌爾睡衣-法蘭絨 M-L 長袖褲裝(粉紫)舒適簡單-家居服</t>
-  </si>
-  <si>
-    <t>華歌爾  經典永恆蝶影美型 B-D 罩杯內衣(灰藍)豐胸圓潤</t>
-  </si>
-  <si>
-    <t>華歌爾-心情內褲 M-LL 七件組褲包(共七色-7件組)</t>
-  </si>
-  <si>
-    <t>華歌爾-磨毛M-LL長袖圓領美姿衣(時尚黑)保暖親膚</t>
-  </si>
-  <si>
-    <t>華歌爾-極衣恆溫M-LL 厚刷保暖褲(黑)保暖柔暖-吸水速乾</t>
-  </si>
-  <si>
-    <t>推easybody-BRALETTE 無鋼圈蕾絲款內衣(性感黑)</t>
-  </si>
-  <si>
-    <t>推EASY SHOP-皇室美戀 無鋼圈B-E罩內衣(爵士藍)</t>
-  </si>
-  <si>
-    <t>推EASY SHOP-ㄅㄤ挺 無鋼圈B-D罩內衣(優雅紫)</t>
-  </si>
-  <si>
-    <t>EASY SHOP-甜美/素雅/性感 我的魅力俏臀褲~任選10件$980</t>
-  </si>
-  <si>
-    <t>EASY SHOP-開運花語 大罩杯B-E罩成套內衣(人緣粉)</t>
-  </si>
-  <si>
-    <t>推EASY SHOP-柔情蔓戀 美背款A-E罩內衣(陽光白)</t>
-  </si>
-  <si>
-    <t>推easybody-我愛運動 無鋼圈AA罩內衣(輕柔灰)</t>
-  </si>
-  <si>
-    <t>EASY SHOP-優雅麗影 美背款C-E罩成套內衣(自然膚)</t>
-  </si>
-  <si>
-    <t>蕾黛絲-美得冒泡V真水平口內褲M-L(輕甜粉)</t>
-  </si>
-  <si>
-    <t>蕾黛絲-超值嚴選 冰雪女伶搭配低腰內褲M-EL(墨綠)</t>
-  </si>
-  <si>
-    <t>蕾黛絲-無鋼圈靠過來 C罩杯內衣(深邃藍)</t>
-  </si>
-  <si>
-    <t>蕾黛絲- 動氧Bra-平口內褲 M-EL(熱感黑)</t>
-  </si>
-  <si>
-    <t>蕾黛絲-雙背片靠過來搭配平口內褲M-EL(清雅藍)</t>
-  </si>
-  <si>
-    <t>蕾黛絲-無與倫比V真水搭配低腰內褲M-EL(活潑綠)</t>
-  </si>
-  <si>
-    <t>蕾黛絲-美得冒泡V真水低腰內褲M-L(星夜藍)</t>
-  </si>
-  <si>
-    <t>蕾黛絲-新減壓靠過來 B-C罩杯內衣(天使白)</t>
-  </si>
-  <si>
-    <t>蕾黛絲-超值嚴選異國風情搭配平口內褲M-EL(天使藍)</t>
-  </si>
-  <si>
-    <t>蕾黛絲-法國情人真水 M-EL平口內褲(氣質藕)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 S-Select內衣  B-G罩杯(雪夜藍)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 15秋冬S-Select提托內衣 B-E罩杯 (水晶藍)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 15秋冬S-Select提托內衣 B-E罩杯 (山茶粉)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 拉住妳小睡褲(黑)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 俏魔力  輕機能超高腰三角束褲PA0001(黑)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 S-Select內衣  D-G罩杯(天鵝膚)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 S-Select  中腰寬邊三角萊克內褲(雪夜藍)</t>
-  </si>
-  <si>
-    <t>【瑪登瑪朵】Soft Life 舒適無痕  B-E罩杯內衣(神祕紫)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 S-Select內衣  B-G罩杯(牛仔藍)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵-我挺妳超細纖維內衣  B-E罩杯(悠水綠)</t>
-  </si>
-  <si>
-    <t>思薇爾 星願系列B-E罩蕾絲包覆內衣(拉丁紅)</t>
-  </si>
-  <si>
-    <t>思薇爾 星願系列M-XL蕾絲低腰三角褲(蜂蜜膚)</t>
-  </si>
-  <si>
-    <t>思薇爾 星願系列M-XL蕾絲低腰三角褲(拉丁紅)</t>
-  </si>
-  <si>
-    <t>思薇爾 春露系列蕾絲低腰三角褲(尊爵藍)</t>
-  </si>
-  <si>
-    <t>思薇爾 夏日舞伶系列M-XL低腰三角褲(芭比粉)</t>
-  </si>
-  <si>
-    <t>思薇爾 夏日舞伶系列M-XL低腰三角褲(蜜膚色)</t>
-  </si>
-  <si>
-    <t>思薇爾 溝惹火系列蕾絲低腰三角褲(亮膚粉)</t>
-  </si>
-  <si>
-    <t>思薇爾 挺享塑系列M-XL高腰三角修飾褲(黑色)</t>
-  </si>
-  <si>
-    <t>思薇爾 星采系列M-XL蕾絲低腰三角褲(蜜紫色)</t>
-  </si>
-  <si>
-    <t>思薇爾 挺完美系列M-XL低腰三角褲(櫻桃粉)</t>
-  </si>
-  <si>
-    <t>【羅絲美】幻想佳人短袖褲裝睡衣 (純潔白)</t>
-  </si>
-  <si>
-    <t>La Felino -花語情人3/4絲棉剪接款B-F罩杯內衣(人氣粉)</t>
-  </si>
-  <si>
-    <t>羅絲美睡衣 - 花漾戀曲短袖褲裝睡衣 (迷人白)</t>
-  </si>
-  <si>
-    <t>La Felino - 夢迴威尼斯3/4絲棉剪接款B-E罩杯內衣 (柔膚色)</t>
-  </si>
-  <si>
-    <t>羅絲美睡衣 - 暖冬戀曲舒適褲裝睡衣 (甜美粉)</t>
-  </si>
-  <si>
-    <t>羅絲美睡衣 - 秋冬玩美長袖洋裝睡衣 (桃紅)</t>
-  </si>
-  <si>
-    <t>羅絲美睡衣 - 秋冬玩美長袖洋裝睡衣 (灰色)</t>
-  </si>
-  <si>
-    <t>羅絲美睡衣 - 素雅風情保暖厚纖維睡袍 (素雅桃紅)</t>
-  </si>
-  <si>
-    <t>La Felino - 秘密情人深V無縫泡棉款B-E罩杯內衣 (神秘黑)</t>
-  </si>
-  <si>
-    <t>羅絲美內衣 -性感織紗三角褲 (性感黑)</t>
-  </si>
-  <si>
-    <t>aimerfeel 超盛無痕內衣-黑色</t>
-  </si>
-  <si>
-    <t>aimerfeel 超盛無痕內衣-紅色</t>
-  </si>
-  <si>
-    <t>aimerfeel 淑女芍藥玫瑰無痕丁字褲-黑色</t>
-  </si>
-  <si>
-    <t>aimerfeel 清新百合圓胸無痕內衣-粉紅色</t>
-  </si>
-  <si>
-    <t>aimerfeel 芍藥玫瑰超盛內衣-粉紅色</t>
-  </si>
-  <si>
-    <t>aimerfeel 性感豹紋美胸內衣 - 膚色</t>
-  </si>
-  <si>
-    <t>aimerfeel 超盛紳士風英軍條紋內衣-深藍色</t>
-  </si>
-  <si>
-    <t>aimerfeel 超盛無痕內衣-膚色</t>
-  </si>
-  <si>
-    <t>aimerfeel 火熱花情超盛內衣-深藍色</t>
-  </si>
-  <si>
-    <t>aimerfeel 紳士風英軍條紋無痕內褲</t>
-  </si>
-  <si>
-    <t>LADY 花間漫步系列 中腰三角內褲(酒香紅)</t>
-  </si>
-  <si>
-    <t>LADY 花間漫步系列 B-E罩 深V內衣(酒香紅)</t>
-  </si>
-  <si>
-    <t>LADY 花間漫步系列 中腰平口內褲(酒香紅)</t>
-  </si>
-  <si>
-    <t>LADY 閃耀愛情系列 低腰丁字內褲(透視黑)</t>
-  </si>
-  <si>
-    <t>LADY 閃耀愛情系列 襯衣(浮華白)</t>
-  </si>
-  <si>
-    <t>LADY 安布羅莎系列 機能調整型 E-F罩內衣(香醇紅)</t>
-  </si>
-  <si>
-    <t>LADY 涼感纖體美型系列 機能調整型 E-F罩內衣(微風藍)</t>
-  </si>
-  <si>
-    <t>LADY  花都魅影系列 D-F罩《無襯》內衣 (薄荷藍)</t>
-  </si>
-  <si>
-    <t>LADY 伯瑟芬妮系列 B~E罩內衣(美型白)</t>
-  </si>
-  <si>
-    <t>LADY 華麗樂園系列 中腰三角褲(粉光橘)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Flower三花 急暖輕著男保暖衣.發熱衣(2件組)    </t>
-  </si>
-  <si>
-    <t>2UNDR Swing Shift精選莫代爾四角內褲(6吋)-BNG</t>
-  </si>
-  <si>
-    <t>保暖衣 男圓領刷毛蓄熱保暖衣(深灰)BeautyFocus</t>
-  </si>
-  <si>
-    <t>ELLE HOMME潮男動物紋四角褲/男內褲-時尚斑馬紋</t>
-  </si>
-  <si>
-    <t>ELLE HOMME 數位印花四角褲 - TRENT/巴黎夜景。Shorty</t>
-  </si>
-  <si>
-    <t>推EASY SHOP-花愛幸福 中腰三角褲(蜜粉色)</t>
-  </si>
-  <si>
-    <t>[時時樂限定]【Olivia】無鋼圈性感無痕蕾絲美背薄款內衣-3件組</t>
-  </si>
-  <si>
-    <t>推EASY SHOP-花愛幸福 大罩杯A-E罩內衣(蜜粉色)</t>
-  </si>
-  <si>
-    <t>推EASY SHOP-花開雍貴 A-D罩內衣(花園粉)</t>
-  </si>
-  <si>
-    <t>推EASY SHOP-花開雍貴 A-D罩內衣(富貴藍)</t>
-  </si>
-  <si>
-    <t>Mollifix瑪莉菲絲 高調A++零負擔舒適背心_(撞色粉+灰)</t>
-  </si>
-  <si>
-    <t>T&amp;G 束胸 大U強力款 半身套頭束胸(黑)</t>
-  </si>
-  <si>
-    <t>率性自在美背無鋼圈運動BRA內衣M~XXL(藍紫) Naya Nina</t>
-  </si>
-  <si>
-    <t>Mollifix瑪莉菲絲 高調A++溝溝立現美胸背心_(撞色亮紫+桃)</t>
-  </si>
-  <si>
-    <t>Mollifix瑪莉菲絲 高調A++動塑升級撞色運動背心_(好動橘粉)</t>
-  </si>
-  <si>
-    <t>華歌爾-美姿極塑衣64-82塑身衣(薄霧灰)</t>
-  </si>
-  <si>
-    <t>曼黛瑪璉-羽涼級‧輕鬆塑  中機能塑腰小可愛(牙白)</t>
-  </si>
-  <si>
-    <t>黛安芬-曲線美体衣-能量鍺緹花系列-M-EEL(奶茶膚)</t>
-  </si>
-  <si>
-    <t>可蘭霓Clany  Tactel 輕機塑身M-EQ(3XL)美體衣 春漾膚</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 輕生活‧好酷塑  中機能塑腹小可愛SB0002(嫩透粉)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 一字領長袖衛生衣HA0007(豆沙粉)</t>
-  </si>
-  <si>
-    <t>瑪登瑪朵 高領長袖衛生衣(羅曼紫)</t>
-  </si>
-  <si>
-    <t>【瑪登瑪朵】啡藏環保  七分直筒睡褲 (水漾綠)</t>
-  </si>
-  <si>
-    <t>三槍牌 時尚經典型男圓領Q-HEAT超彈性長袖發熱衣~2件組</t>
-  </si>
-  <si>
-    <t>ELLE HOMME厚綿純色V領長袖T恤 _六色-E83208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Flower三花 三花無痕肌紳士休閒襪.襪子(6雙組)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Flower三花 1/2休閒襪.襪子(12雙組)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒂巴蕾 Deparee 薰衣草芳香彈性絲襪    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒂巴蕾 微溫向上Warm up溫暖50D保暖褲襪    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒂巴蕾 T透 Magic 全透明彈性絲襪    </t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>服裝 / 飾品 / 配件</t>
+  </si>
+  <si>
+    <t>穿搭配件</t>
+  </si>
+  <si>
+    <t>流行女裝</t>
+  </si>
+  <si>
+    <t>百貨專櫃女裝</t>
+  </si>
+  <si>
+    <t>男裝</t>
+  </si>
+  <si>
+    <t>大尺碼</t>
+  </si>
+  <si>
+    <t>飾品</t>
+  </si>
+  <si>
+    <t>OB嚴選</t>
+  </si>
+  <si>
+    <t>AIR SPACE服裝</t>
+  </si>
+  <si>
+    <t>beartwo</t>
+  </si>
+  <si>
+    <t>SO NICE</t>
+  </si>
+  <si>
+    <t>tokichoi 東京著衣</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>betty's貝蒂思</t>
+  </si>
+  <si>
+    <t>earth music&amp;ecology</t>
+  </si>
+  <si>
+    <t>gozo</t>
+  </si>
+  <si>
+    <t>H:CONNECT</t>
+  </si>
+  <si>
+    <t>LIYO理優</t>
+  </si>
+  <si>
+    <t>OUWEY / 伊蕾</t>
+  </si>
+  <si>
+    <t>獨身貴族 / CHICA</t>
+  </si>
+  <si>
+    <t>梨花HaNA 浪漫冬日雪之戀人蝴蝶結圍巾黑白色</t>
+  </si>
+  <si>
+    <t>AnnaSofia 真兔毛球編織紋 保暖球球毛帽(酒紅系)</t>
+  </si>
+  <si>
+    <t>【Scarfesia】俏皮法鬥 法國藝術家親繪設計印度手工披肩圍巾(綠色)</t>
+  </si>
+  <si>
+    <t>格子襯衫毛衣兩件套-共5色(F可選)    初色</t>
+  </si>
+  <si>
+    <t>101原創 極柔原色口袋背心(男女適穿)-共6色</t>
+  </si>
+  <si>
+    <t>松鼠口袋彩色鐵環袖口毛衣-共5色(F可選) 初色</t>
+  </si>
+  <si>
+    <t>La BellezaSTEAD字母連帽抽繩內裡加絨加厚燈籠袖厚刷毛帽T</t>
+  </si>
+  <si>
+    <t>La BellezaV領素面連帽抽繩長版洋裝</t>
+  </si>
+  <si>
+    <t>INTIMATUS真皮 雙排釦風衣款長版頂級小羊皮皮衣 經典黑</t>
+  </si>
+  <si>
+    <t>INTIMATUS 真皮 菱格質感防風鈕扣式設計鋪棉頂級小羊皮皮衣 經典黑</t>
+  </si>
+  <si>
+    <t>INTIMATUS真皮 奢華貉毛貂毛鋪棉頂級小羊皮皮衣 經典黑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeyWear奇威名品    精緻名媛社交長袖外套-黑色    </t>
+  </si>
+  <si>
+    <t>【TOPGIRL】棉質連帽外套-灰</t>
+  </si>
+  <si>
+    <t>[雙12一日限定] 運動CHAMPION HOODIE冠軍圓領大學T 高磅 鋪棉</t>
+  </si>
+  <si>
+    <t>BARONECE 紳士商務修身版平面西裝褲_灰(513111-03)</t>
+  </si>
+  <si>
+    <t>小猴子的賣場 韓版簡約風素面彈性窄版休閒長褲-六色</t>
+  </si>
+  <si>
+    <t>可樂思 百搭純素面 彈性舒適 小褲腳 九分 男生休閒褲</t>
+  </si>
+  <si>
+    <t>Emilio Valentino 范倫提諾彈性合身牛仔褲-藍</t>
+  </si>
+  <si>
+    <t>中大尺碼 羅紋拼接立領漸層菱格滾邊針織毛衣洋裝-La Belleza</t>
+  </si>
+  <si>
+    <t>EDWIN 大尺碼迦績褲 不對稱刷色窄直筒牛仔褲-男-酵洗藍</t>
+  </si>
+  <si>
+    <t>AnnaSoia 柔美絲巾/加大加寬圍巾 任2件$450</t>
+  </si>
+  <si>
+    <t>Seoul Show首爾秀 100%獺兔毛三管加厚圍脖真毛皮草圍巾</t>
+  </si>
+  <si>
+    <t>AnnaSofia 簡約純色 厚織混羊毛大披肩圍巾(淺灰系)</t>
+  </si>
+  <si>
+    <t>梨花HaNA 韓國超柔軟手感細毛線小鳳梨圍巾灰綠色</t>
+  </si>
+  <si>
+    <t>【拉福】酒紅亮面新郎結婚領結糾糾(酒紅)</t>
+  </si>
+  <si>
+    <t>Hera赫拉 明星同款鋯石圓鑽轉運招桃花紅繩手鍊</t>
+  </si>
+  <si>
+    <t>梨花HaNA 韓國經典時尚冬日雪梅925銀耳環(精裝)</t>
+  </si>
+  <si>
+    <t>AchiCat 珠寶白鋼耳環 單邊單個 專屬色彩 (正鑽款)</t>
+  </si>
+  <si>
+    <t>MiGO 一生一世男女對戒</t>
+  </si>
+  <si>
+    <t>GIUMKA 十字情人 珠寶白鋼情侶耳環 銀色 單邊單個</t>
+  </si>
+  <si>
+    <t>腰鬆緊高腰收腹彈力窄管牛仔褲-OB嚴選</t>
+  </si>
+  <si>
+    <t>防風防雨連帽長版外套(女-OB嚴選</t>
+  </si>
+  <si>
+    <t>厚刷毛字母印花格紋連帽衛衣上衣-OB嚴選</t>
+  </si>
+  <si>
+    <t>台灣製造~輕量內磨毛彈性保暖發熱褲(男)-OB嚴選</t>
+  </si>
+  <si>
+    <t>腰鬆緊下襬抽鬚開衩前後兩穿牛仔長裙-OB大尺碼</t>
+  </si>
+  <si>
+    <t>點點KITTY厚刷毛連帽衛衣上衣-OB嚴選</t>
+  </si>
+  <si>
+    <t>台灣製造輕量內磨毛彈性保暖發熱衣(男-OB大尺碼</t>
+  </si>
+  <si>
+    <t>褲腳拼接直筒牛仔褲-OB嚴選</t>
+  </si>
+  <si>
+    <t>縮口羅紋拼色內刷毛休閒長褲-OB嚴選</t>
+  </si>
+  <si>
+    <t>光澤感絨毛邊連帽羽絨棉外套-OB嚴選</t>
+  </si>
+  <si>
+    <t>AIR SPACE 雙排釦交叉領針織上衣(附腰帶)(杏)</t>
+  </si>
+  <si>
+    <t>AIR SPACE LADY 字母棉質坑條上衣(黃棕)</t>
+  </si>
+  <si>
+    <t>AIR SPACE 排釦丹寧合身背心洋裝(藍)</t>
+  </si>
+  <si>
+    <t>AIR SPACE 曲線修身滿版蕾絲短洋裝(粉紅)</t>
+  </si>
+  <si>
+    <t>AIR SPACE 素面排釦純色開衩洋裝(粉紅)</t>
+  </si>
+  <si>
+    <t>AIR SPACE 氣質削肩綁帶背鏤空金蔥長洋裝(黑)</t>
+  </si>
+  <si>
+    <t>AIR SPACE 金蔥魚尾傘擺長裙(藍)</t>
+  </si>
+  <si>
+    <t>AIR SPACE 氣質寬袖滿版蕾絲拉鍊上衣(磚紅)</t>
+  </si>
+  <si>
+    <t>AIR SPACE 簡約蘇格蘭紋褲裙(黑)</t>
+  </si>
+  <si>
+    <t>AIR SPACE 質感一字領扭結包臀洋裝(酒紅)</t>
+  </si>
+  <si>
+    <t>beartwo 寬領喇叭袖袖開衩棉質上衣(三色)</t>
+  </si>
+  <si>
+    <t>beartwo橫條紋彈性羅紋開衩長版背心(二色) -動態show</t>
+  </si>
+  <si>
+    <t>beartwo立體不對稱圍裹剪裁造型短褲(共二色)</t>
+  </si>
+  <si>
+    <t>beartwo 微透針織拼接雪紡前短後長上衣(二色)</t>
+  </si>
+  <si>
+    <t>beartwo 兩件式不對稱內搭條紋罩衫(二色)-動態show</t>
+  </si>
+  <si>
+    <t>beartwo 下擺鏤空雕花短版襯衫(二色)</t>
+  </si>
+  <si>
+    <t>beartwo 現在吉普賽波浪袖身開襟上衣(二色)</t>
+  </si>
+  <si>
+    <t>beartwo 休閒風拼接色塊圓領開衩長版上衣(二色)-動態show</t>
+  </si>
+  <si>
+    <t>beartwo 豹紋皮革打結造型短裙(黑色)-動態show</t>
+  </si>
+  <si>
+    <t>beartwo 經典英倫細格格紋合身九分褲(灰黑格紋)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE簡約高領裝飾釦針織上衣    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE優雅綁結兩件式上衣    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE氣質珍珠點綴仿毛呢上衣    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE簡約亮蔥針織上衣    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE百搭織帶拼接羅馬布上衣    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE唯美抽鬚雪紡蛋糕袖上衣    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE優雅毛絨袖針織洋裝    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE個性一字領金蔥羅紋上衣    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE氣質毛絨小鹿針織上衣    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO NICE簡約百搭圓領上衣    </t>
+  </si>
+  <si>
+    <t>東京著衣 多彩鬆糕領素面針織毛衣(共十七色)</t>
+  </si>
+  <si>
+    <t>東京著衣-yoco 優雅韓風多色高領澎袖針織上衣-S.M.L(共四色)</t>
+  </si>
+  <si>
+    <t>東京著衣-yoco 法式浪漫鏤空珍珠墜領針織上衣-S.M.L(共二色)</t>
+  </si>
+  <si>
+    <t>東京著衣-KODZ 下擺設計感重磅直筒寬褲-S.M.L(共二色)</t>
+  </si>
+  <si>
+    <t>東京著衣-KODZ IG爆款時髦美背大扭結多色毛衣-S.M.L(共三色)</t>
+  </si>
+  <si>
+    <t>東京著衣 MIT-3kg激瘦280D提臀美腿魔術褲襪(共一色)</t>
+  </si>
+  <si>
+    <t>東京著衣 韓國姊姊可拉斜肩多色大圓領綁帶上衣(共四色)</t>
+  </si>
+  <si>
+    <t>東京著衣 法式甜美多色寬袖針織上衣-S.M(共二色)</t>
+  </si>
+  <si>
+    <t>東京著衣 +5度C保暖依然瘦腿內刷毛牛仔褲-S.M.L.XL(共二色)</t>
+  </si>
+  <si>
+    <t>東京著衣 冬天來了不怕內刷毛保暖褲襪(共四色)</t>
+  </si>
+  <si>
+    <t>寬鬆可愛圓點針織上衣 共三色 TATA</t>
+  </si>
+  <si>
+    <t>鬆緊腰百褶紗裙 共三色 TATA</t>
+  </si>
+  <si>
+    <t>馬海毛拼色針織上衣 TATA</t>
+  </si>
+  <si>
+    <t>袖口緞帶針織上衣 共二色 TATA</t>
+  </si>
+  <si>
+    <t>圓領縮口袖針織洋裝  共三色 TATA</t>
+  </si>
+  <si>
+    <t>V領前短後長寬袖針織上衣 TATA</t>
+  </si>
+  <si>
+    <t>釘扣羊羔毛背心外套 共二色  TATA</t>
+  </si>
+  <si>
+    <t>下擺開叉鈕扣針織上衣 共二色 TATA</t>
+  </si>
+  <si>
+    <t>九分袖條紋開叉針織上衣 共二色 TATA</t>
+  </si>
+  <si>
+    <t>顯瘦彈力內搭褲 TATA</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　拼接條紋袖T-shirt(淺灰)</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　直條修身寬管褲(灰色)</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　拼接條紋棉質襯衫(白色)</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　圓領點點拼接條紋上衣(黑色)</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　鋪棉拼接毛料雙層連帽背心外套(共二色)</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　趣味馬戲團插圖拼接條紋七分袖T-shirt(綠色)</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　日系造型寬鬆七分褲(軍綠色)</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　可愛圖案長版襯衫(白色)</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　格子連帽大衣(綠色)</t>
+  </si>
+  <si>
+    <t>betty’s貝蒂思　珍珠點綴繪圖條紋長袖T-shirt(紅色)</t>
+  </si>
+  <si>
+    <t>earth music 花柄圖案打摺膝下中長裙</t>
+  </si>
+  <si>
+    <t>earth music 氣質百褶過膝裙</t>
+  </si>
+  <si>
+    <t>earth music 圓領蓬袖素面上衣</t>
+  </si>
+  <si>
+    <t>earth music 俐落線條下擺抽鬚牛仔長裙</t>
+  </si>
+  <si>
+    <t>earth music 圓領落肩麻花長版針織上衣</t>
+  </si>
+  <si>
+    <t>AMERICAN HOLIC 2Way兩穿編織造型針織上衣</t>
+  </si>
+  <si>
+    <t>earth music 氣質高領長袖針織上衣</t>
+  </si>
+  <si>
+    <t>E hyphen 滿版花朵蕾絲上衣+內搭背心</t>
+  </si>
+  <si>
+    <t>E hyphen 花朵透膚蕾絲拼接五分袖高領上衣</t>
+  </si>
+  <si>
+    <t>E hyphen 不規則下擺側扣造型長裙</t>
+  </si>
+  <si>
+    <t>gozo 活力色彩幾何繡布徽章長袖上衣 (二色)</t>
+  </si>
+  <si>
+    <t>gozo 宇宙探險長版圖案襯衫(二色)</t>
+  </si>
+  <si>
+    <t>gozo 穿越時空圖樣衛衣(三色)</t>
+  </si>
+  <si>
+    <t>gozo 率性牛仔拼接條紋窄裙(米白色)</t>
+  </si>
+  <si>
+    <t>gozo 棒球縫線圓領針織上衣(白色)</t>
+  </si>
+  <si>
+    <t>gozo 簡約主義直條紋上衣(二色)</t>
+  </si>
+  <si>
+    <t>gozo創意家異想標語上衣(迷幻藍)</t>
+  </si>
+  <si>
+    <t>gozo迷幻攝影格紋襯衫(二色)</t>
+  </si>
+  <si>
+    <t>gozo 搖滾生活風長版襯衫 (二色)-動態show</t>
+  </si>
+  <si>
+    <t>gozo 幾何圖形撞色拼接長袖T(二色)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H:CONNECT 韓國品牌 女裝 - 純色俐落打摺寬褲-綠(快)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H:CONNECT 韓國品牌-男裝-立領小口袋長袖襯衫 - 白(快)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H:CONNECT 韓國品牌  女裝 - 純色條紋長版襯衫-藍(快)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H:CONNECT 韓國品牌 女裝-質感純色垂墜長版T-Shirt-黑(快)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H:CONNECT 韓國品牌 女裝-純色素面彈性窄管長褲-黑(快)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H:CONNECT韓國品牌女裝-Boyfriend破壞牛仔褲-藍(快)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H:CONNECT 韓國品牌 男裝-圖像印字層次感上衣-藍(快)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H:CONNECT 韓國品牌 女裝-SHARKEE悠閒粗針織外套-藍(快)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H:CONNECT 韓國品牌 女裝 - 蓬鬆絨毛連帽外套-白(快)    </t>
+  </si>
+  <si>
+    <t>H:CONNECT 韓國品牌 女裝-後領口造型針織上衣-黃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIYO理優上衣圖案印花棉T恤(白，灰，黑)    </t>
+  </si>
+  <si>
+    <t>LIYO理優鏤空領花蕾絲上衣(黑,白,黃)</t>
+  </si>
+  <si>
+    <t>外套透膚雪紡拼接針織防曬透氣顯瘦V領薄外套LIYO理優 S-2XL</t>
+  </si>
+  <si>
+    <t>LIYO理優印花貼鑽T恤(白)</t>
+  </si>
+  <si>
+    <t>LIYO理優V領排釦棉T恤(黑,白,橘,粉)</t>
+  </si>
+  <si>
+    <t>LIYO理優洋裝MIT圓點連身裙(深藍)</t>
+  </si>
+  <si>
+    <t>上衣鏤空蕾絲拼接女長袖襯衫 S-2XL LIYO理優</t>
+  </si>
+  <si>
+    <t>LIYO理優經典條紋喇叭袖上衣(黑,藍,紅)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIYO理優格紋綁帶襯衫洋裝-附布腰帶 (紅,黑)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIYO理優V領雪紡襯衫(墨綠,白)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILEY伊蕾 雙層領撞色高領毛衣(可/綠)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILEY伊蕾 保暖羊毛高領針織上衣體驗價商品(黑/藍/綠/紅/桃/鐵灰)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUWEY歐薇 優雅甜美珠飾上衣(白/粉)-動態show    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUWEY歐薇 率性都會簡約褲裙(黑/粉)-動態show    </t>
+  </si>
+  <si>
+    <t>OUWEY歐薇 百搭翻領羊毛針織上衣(可/灰/紅)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILEY伊蕾 剪接花卉蕾絲短袖洋裝(藍)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUWEY歐薇 翻領組織紋長版毛衣(灰/黑/紅)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILEY伊蕾 100%溫暖羊毛超百搭翻領針織上衣(黑/白/可/綠/桃/鐵灰)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILEY伊蕾 優雅百搭蕾絲上衣魅力價商品(黑/白/粉)    </t>
+  </si>
+  <si>
+    <t>OUWEY歐薇 花藝造型刺繡絨面A字短裙(灰)</t>
+  </si>
+  <si>
+    <t>獨身貴族 前衛靈魂撞色條紋拼接針織衫(2色)</t>
+  </si>
+  <si>
+    <t>SNS 摩登風潮壓縫口袋彈性內搭褲(2色)</t>
+  </si>
+  <si>
+    <t>獨身貴族 荒漠旅人翻領長版羊毛外套(2色)</t>
+  </si>
+  <si>
+    <t>CHICA 凱西漫舞斜裁下襬木耳邊上衣(3色)</t>
+  </si>
+  <si>
+    <t>CHICA 復古學院滿版撞色愛心針織衫(2色)</t>
+  </si>
+  <si>
+    <t>獨身貴族 慵懶冬日條紋圓領純色上衣(2色)</t>
+  </si>
+  <si>
+    <t>獨身貴族 簡約系質感垂墜剪裁西裝寬褲(3色)</t>
+  </si>
+  <si>
+    <t>CHICA 華麗饗宴光澤絲絨鬆緊圓領上衣(2色)</t>
+  </si>
+  <si>
+    <t>獨身貴族 祕密花園層次鑽飾蝴蝶圓球項鍊(1色)</t>
+  </si>
+  <si>
+    <t>獨身貴族 星空追逐水鑽月亮星星墜飾項鍊(1色)</t>
   </si>
 </sst>
 </file>
@@ -824,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,10 +963,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1320</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -875,10 +980,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>980</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -892,10 +997,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>1880</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -906,13 +1011,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>1320</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -923,13 +1028,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>1320</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -940,13 +1045,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>1480</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -957,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>1880</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -974,13 +1079,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>1280</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -991,13 +1096,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>1280</v>
+        <v>15980</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1008,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>1480</v>
+        <v>16980</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1025,13 +1130,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>460</v>
+        <v>19980</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1042,13 +1147,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>1880</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1059,13 +1164,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>380</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1076,13 +1181,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>380</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1093,13 +1198,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>380</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1110,13 +1215,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E17">
-        <v>1880</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1127,13 +1232,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>1580</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1144,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E19">
-        <v>320</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1161,13 +1266,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>380</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1178,13 +1283,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E21">
-        <v>490</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1195,13 +1300,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <v>1180</v>
+        <v>990</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1212,13 +1317,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>1180</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1229,13 +1334,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E24">
-        <v>2280</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1246,13 +1351,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E25">
-        <v>1380</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1263,13 +1368,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>2580</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1280,13 +1385,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>2580</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1297,13 +1402,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E28">
-        <v>1580</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1314,13 +1419,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E29">
-        <v>1610</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1331,13 +1436,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E30">
-        <v>1180</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1348,13 +1453,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E31">
-        <v>780</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1365,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E32">
-        <v>880</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1382,13 +1487,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E33">
-        <v>1380</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1399,13 +1504,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E34">
-        <v>790</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1416,13 +1521,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E35">
-        <v>4900</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1433,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>1960</v>
+        <v>763</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1450,13 +1555,13 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E37">
-        <v>1480</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1467,13 +1572,13 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E38">
-        <v>580</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1484,13 +1589,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E39">
-        <v>1660</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1501,13 +1606,13 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E40">
-        <v>480</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1518,13 +1623,13 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E41">
-        <v>380</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1535,13 +1640,13 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E42">
-        <v>1580</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1552,10 +1657,10 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E43">
         <v>390</v>
@@ -1569,13 +1674,13 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E44">
-        <v>480</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1586,13 +1691,13 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E45">
-        <v>450</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1603,13 +1708,13 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E46">
-        <v>480</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1620,13 +1725,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E47">
-        <v>1580</v>
+        <v>830</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1637,13 +1742,13 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E48">
-        <v>380</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1654,13 +1759,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E49">
-        <v>500</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1671,13 +1776,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50">
-        <v>1380</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1688,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E51">
-        <v>1280</v>
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1705,10 +1810,10 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E52">
         <v>1280</v>
@@ -1722,13 +1827,13 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E53">
-        <v>480</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1739,13 +1844,13 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E54">
-        <v>980</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1756,13 +1861,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E55">
-        <v>1280</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1773,13 +1878,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E56">
-        <v>420</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1790,13 +1895,13 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E57">
-        <v>1280</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1807,13 +1912,13 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E58">
-        <v>1280</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1824,13 +1929,13 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E59">
-        <v>1380</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1841,13 +1946,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E60">
-        <v>1280</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1858,13 +1963,13 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E61">
-        <v>380</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1875,13 +1980,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E62">
-        <v>380</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1892,13 +1997,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E63">
-        <v>360</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1909,13 +2014,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E64">
-        <v>360</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1926,13 +2031,13 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E65">
-        <v>360</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1943,13 +2048,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E66">
-        <v>380</v>
+        <v>980</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1960,13 +2065,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E67">
-        <v>680</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1977,13 +2082,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E68">
-        <v>360</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1994,13 +2099,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E69">
-        <v>380</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2011,13 +2116,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E70">
-        <v>2580</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2028,13 +2133,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E71">
-        <v>1880</v>
+        <v>790</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2045,13 +2150,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E72">
-        <v>4980</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2062,13 +2167,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E73">
-        <v>1980</v>
+        <v>860</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2079,13 +2184,13 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E74">
-        <v>2990</v>
+        <v>920</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2096,13 +2201,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E75">
-        <v>2980</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2113,13 +2218,13 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E76">
-        <v>2980</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2130,13 +2235,13 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E77">
-        <v>2980</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2147,13 +2252,13 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E78">
-        <v>3980</v>
+        <v>960</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2164,13 +2269,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E79">
-        <v>480</v>
+        <v>680</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2181,13 +2286,13 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E80">
-        <v>990</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2198,13 +2303,13 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E81">
-        <v>990</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2215,13 +2320,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E82">
-        <v>360</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2232,13 +2337,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E83">
-        <v>850</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2249,13 +2354,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E84">
-        <v>1200</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2266,13 +2371,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E85">
-        <v>990</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2283,13 +2388,13 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E86">
-        <v>990</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2300,13 +2405,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E87">
-        <v>990</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2317,13 +2422,13 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E88">
-        <v>1200</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2334,13 +2439,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E89">
-        <v>320</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2351,13 +2456,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E90">
-        <v>690</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2368,13 +2473,13 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E91">
-        <v>1790</v>
+        <v>980</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2385,13 +2490,13 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E92">
-        <v>690</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2402,13 +2507,13 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E93">
-        <v>1180</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2419,13 +2524,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E94">
-        <v>2880</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2436,10 +2541,10 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E95">
         <v>2880</v>
@@ -2453,13 +2558,13 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E96">
-        <v>2880</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2470,10 +2575,10 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E97">
         <v>2480</v>
@@ -2487,13 +2592,13 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E98">
-        <v>1790</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2504,13 +2609,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E99">
-        <v>690</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2521,13 +2626,13 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E100">
-        <v>1600</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2538,13 +2643,13 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E101">
-        <v>3240</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2555,13 +2660,13 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E102">
-        <v>499</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2572,13 +2677,13 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E103">
-        <v>980</v>
+        <v>760</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2589,13 +2694,13 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E104">
-        <v>1080</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2606,13 +2711,13 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E105">
-        <v>480</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2623,13 +2728,13 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E106">
-        <v>2340</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2640,13 +2745,13 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E107">
-        <v>1380</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2657,13 +2762,13 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E108">
-        <v>1480</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2674,13 +2779,13 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E109">
-        <v>1480</v>
+        <v>830</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2691,13 +2796,13 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E110">
-        <v>1080</v>
+        <v>830</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2708,13 +2813,13 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E111">
-        <v>1200</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2725,13 +2830,13 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E112">
-        <v>1199</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2742,13 +2847,13 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E113">
-        <v>1080</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2759,13 +2864,13 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E114">
-        <v>1080</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2776,13 +2881,13 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E115">
-        <v>2080</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2793,13 +2898,13 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E116">
-        <v>980</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2810,13 +2915,13 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E117">
-        <v>2580</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2827,13 +2932,13 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E118">
-        <v>1090</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2844,13 +2949,13 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E119">
-        <v>980</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2864,10 +2969,10 @@
         <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E120">
-        <v>980</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2881,10 +2986,10 @@
         <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E121">
-        <v>980</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2895,13 +3000,13 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E122">
-        <v>880</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2912,13 +3017,13 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D123" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E123">
-        <v>1299</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2929,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E124">
-        <v>2180</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2949,10 +3054,10 @@
         <v>22</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E125">
-        <v>1500</v>
+        <v>980</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2966,10 +3071,10 @@
         <v>22</v>
       </c>
       <c r="D126" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E126">
-        <v>960</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2983,10 +3088,10 @@
         <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E127">
-        <v>159</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3000,10 +3105,10 @@
         <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E128">
-        <v>219</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3017,10 +3122,554 @@
         <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E129">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>155</v>
+      </c>
+      <c r="E131">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" t="s">
+        <v>156</v>
+      </c>
+      <c r="E132">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" t="s">
+        <v>159</v>
+      </c>
+      <c r="E135">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" t="s">
+        <v>161</v>
+      </c>
+      <c r="E137">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" t="s">
+        <v>162</v>
+      </c>
+      <c r="E138">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" t="s">
+        <v>164</v>
+      </c>
+      <c r="E140">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" t="s">
+        <v>166</v>
+      </c>
+      <c r="E142">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>167</v>
+      </c>
+      <c r="E143">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" t="s">
+        <v>168</v>
+      </c>
+      <c r="E144">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" t="s">
+        <v>169</v>
+      </c>
+      <c r="E145">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" t="s">
+        <v>170</v>
+      </c>
+      <c r="E146">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" t="s">
+        <v>171</v>
+      </c>
+      <c r="E147">
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" t="s">
+        <v>172</v>
+      </c>
+      <c r="E148">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s">
+        <v>173</v>
+      </c>
+      <c r="E149">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" t="s">
+        <v>174</v>
+      </c>
+      <c r="E150">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" t="s">
+        <v>175</v>
+      </c>
+      <c r="E151">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" t="s">
+        <v>176</v>
+      </c>
+      <c r="E152">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" t="s">
+        <v>178</v>
+      </c>
+      <c r="E154">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" t="s">
         <v>179</v>
+      </c>
+      <c r="E155">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" t="s">
+        <v>180</v>
+      </c>
+      <c r="E156">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" t="s">
+        <v>181</v>
+      </c>
+      <c r="E157">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" t="s">
+        <v>182</v>
+      </c>
+      <c r="E158">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" t="s">
+        <v>183</v>
+      </c>
+      <c r="E159">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" t="s">
+        <v>184</v>
+      </c>
+      <c r="E160">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" t="s">
+        <v>185</v>
+      </c>
+      <c r="E161">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
